--- a/siteCoordinates.xlsx
+++ b/siteCoordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iancombs/Documents/GitHub/analysisOf3dModels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99C408E-F1E7-5B4C-A84F-319C299A77F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E0CC8E-187C-8D44-AEFB-452F82316B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{30776204-7E57-D14C-A028-5D8D1A0EF0EE}"/>
+    <workbookView xWindow="41760" yWindow="2400" windowWidth="27640" windowHeight="16940" xr2:uid="{30776204-7E57-D14C-A028-5D8D1A0EF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>County</t>
   </si>
@@ -171,6 +171,42 @@
   </si>
   <si>
     <t>-80° 05.843'</t>
+  </si>
+  <si>
+    <t>Survey Dates</t>
+  </si>
+  <si>
+    <t>12/8/2017, 5/30/18, 8/22/18, 12/18/18, 3/11/19, 5/15/19</t>
+  </si>
+  <si>
+    <t>12/8/2017, 6/1/18, 8/22/18,  12/18/18, 3/11/19, 5/15/19</t>
+  </si>
+  <si>
+    <t>3/1/2019, 4/25/19, 6/4/19</t>
+  </si>
+  <si>
+    <t>11/9/2017, 3/1/19,  4/25/19,  6/4/19</t>
+  </si>
+  <si>
+    <t>3/1/2019,  4/25/19,  6/4/19</t>
+  </si>
+  <si>
+    <t>12/7/2017, 4/19/2018, 8/31/18, 2/5/19, 3/12/19, 5/14/19, 6/12/19</t>
+  </si>
+  <si>
+    <t>12/7/2017, 8/31/18, 2/5/19, 3/12/19, 5/14/19, 6/12/19</t>
+  </si>
+  <si>
+    <t>12/7/2017, 2/5/19, 3/12/19, 5/14/19, 6/12/19</t>
+  </si>
+  <si>
+    <t>11/8/2018, 12/17/18, 3/4/19, 5/7/19, 6/21/19</t>
+  </si>
+  <si>
+    <t>11/8/2018, 12/17/18, 3/4/19,  6/21/19</t>
+  </si>
+  <si>
+    <t>11/8/2018, 12/17/18, 3/4/19, 5/7/19,  6/21/19</t>
   </si>
 </sst>
 </file>
@@ -225,13 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AFBF71-38F2-0C40-8CD9-06D890854C1D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,9 +597,10 @@
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -572,9 +613,11 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -587,9 +630,11 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -602,9 +647,11 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -617,9 +664,11 @@
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -632,9 +681,11 @@
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -647,9 +698,12 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -662,9 +716,11 @@
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -677,9 +733,11 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -692,9 +750,12 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -707,9 +768,11 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -722,9 +785,11 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -737,9 +802,11 @@
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -752,9 +819,11 @@
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -766,6 +835,9 @@
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
